--- a/TestC_ex_all.xlsx
+++ b/TestC_ex_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amitoj Singh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amitoj Singh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9DF787-10B4-45D9-A925-0A692227D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFABCC-2120-4FBF-944F-670F895847CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -344,12 +344,6 @@
   </si>
   <si>
     <t>Browser submitted login form and closed successfully after 5-second wait</t>
-  </si>
-  <si>
-    <t>Chrome browser performed the search, clicked the result, and closed successfully after 3 seconds</t>
-  </si>
-  <si>
-    <t>The website should search for “Bangalore” and navigate to the clicked search result page</t>
   </si>
   <si>
     <t>URL: https://www.easycalculation.com
@@ -550,6 +544,15 @@
   </si>
   <si>
     <t>Alerts handled and messages verified.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome browser performed the search, clicked the result, but first link didn't open </t>
+  </si>
+  <si>
+    <t>The website should search for “Bangalore” and navigate to the clicked search result page and open first link.</t>
   </si>
 </sst>
 </file>
@@ -927,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1052,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>64</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="5" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -1078,7 +1081,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>72</v>
@@ -1107,7 +1110,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>75</v>
@@ -1136,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>78</v>
@@ -1165,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>81</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1223,7 +1226,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>90</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1255,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>93</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="12" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -1281,7 +1284,7 @@
         <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>97</v>
@@ -1295,31 +1298,31 @@
     </row>
     <row r="13" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="70" x14ac:dyDescent="0.3">
@@ -1339,13 +1342,13 @@
         <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>58</v>
@@ -1368,13 +1371,13 @@
         <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>58</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="16" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1397,13 +1400,13 @@
         <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>58</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -1426,7 +1429,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>56</v>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="18" spans="1:9" ht="154" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
@@ -1455,10 +1458,10 @@
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>60</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="19" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -1484,13 +1487,13 @@
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>58</v>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="20" spans="1:9" ht="126" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1513,13 +1516,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>58</v>
